--- a/www/ig/fhir/eclaire/ValueSet-eclaire-study-phase-source-vs.xlsx
+++ b/www/ig/fhir/eclaire/ValueSet-eclaire-study-phase-source-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T12:15:34+00:00</t>
+    <t>2023-10-24T08:19:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/eclaire/ValueSet-eclaire-study-phase-source-vs.xlsx
+++ b/www/ig/fhir/eclaire/ValueSet-eclaire-study-phase-source-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-24T08:19:05+00:00</t>
+    <t>2024-02-26T13:35:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -230,10 +230,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
